--- a/4_servents.xlsx
+++ b/4_servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F167"/>
+  <dimension ref="A1:F170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4379,7 +4379,11 @@
           <t>羅蘭</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>羅蘭</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -4403,7 +4407,11 @@
           <t>克里姆希爾德</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>克琳希德</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -4427,7 +4435,11 @@
           <t>堂·吉訶德</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>唐吉訶德</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -4710,7 +4722,11 @@
           <t>ロクスタ</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr"/>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>洛庫斯塔</t>
+        </is>
+      </c>
       <c r="F155" t="inlineStr"/>
     </row>
     <row r="156">
@@ -4730,7 +4746,11 @@
           <t>セタンタ</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr"/>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>瑟坦特</t>
+        </is>
+      </c>
       <c r="F156" t="inlineStr"/>
     </row>
     <row r="157">
@@ -4952,6 +4972,66 @@
       </c>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>408</v>
+      </c>
+      <c r="B168" t="n">
+        <v>4</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Assassin</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>耀星のハサン</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>410</v>
+      </c>
+      <c r="B169" t="n">
+        <v>4</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Pretender</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>アレッサンドロ・ディ・カリオストロ</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>414</v>
+      </c>
+      <c r="B170" t="n">
+        <v>4</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Berserker</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>静希草十郎</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4_servents.xlsx
+++ b/4_servents.xlsx
@@ -4463,7 +4463,11 @@
           <t>加雷斯</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>加雷斯</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -4487,7 +4491,11 @@
           <t>宇津見繪里瀨</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>宇津見繪里世</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -4511,7 +4519,11 @@
           <t>周照</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr"/>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>武則天</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -4535,7 +4547,11 @@
           <t>斯露德</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>斯露德</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -4559,7 +4575,11 @@
           <t>希露德</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>希露德</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -4583,7 +4603,11 @@
           <t>奧特琳德</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>奧特琳德</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -4607,7 +4631,11 @@
           <t>山南敬助</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>山南敬助</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -4631,7 +4659,11 @@
           <t>壹與</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr"/>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>臺與</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -4655,7 +4687,11 @@
           <t>黃飛虎</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr"/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>黃飛虎</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -4679,7 +4715,11 @@
           <t>九紋龍伊麗莎</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr"/>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>九紋龍伊莉莎</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -4770,7 +4810,11 @@
           <t>ドゥリーヨダナ</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>難敵</t>
+        </is>
+      </c>
       <c r="F157" t="inlineStr"/>
     </row>
     <row r="158">

--- a/4_servents.xlsx
+++ b/4_servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F170"/>
+  <dimension ref="A1:F176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4834,7 +4834,11 @@
           <t>鈴鹿御前〔サマバケ〕</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr"/>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>鈴鹿御前〔暑假〕</t>
+        </is>
+      </c>
       <c r="F158" t="inlineStr"/>
     </row>
     <row r="159">
@@ -4854,7 +4858,11 @@
           <t>クロエ・フォン・アインツベルン</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>克洛伊·馮·愛因茲貝倫</t>
+        </is>
+      </c>
       <c r="F159" t="inlineStr"/>
     </row>
     <row r="160">
@@ -4874,7 +4882,11 @@
           <t>ノクナレア・ヤラアーンドゥ</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr"/>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>諾克娜蕾·雅蘭杜</t>
+        </is>
+      </c>
       <c r="F160" t="inlineStr"/>
     </row>
     <row r="161">
@@ -4894,7 +4906,11 @@
           <t>ＵＤＫ－バーゲスト</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>ＵＤＫ－巴格斯特</t>
+        </is>
+      </c>
       <c r="F161" t="inlineStr"/>
     </row>
     <row r="162">
@@ -4914,7 +4930,11 @@
           <t>ケット・クー・ミコケル</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr"/>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>凱特·庫·米可科爾</t>
+        </is>
+      </c>
       <c r="F162" t="inlineStr"/>
     </row>
     <row r="163">
@@ -5076,6 +5096,126 @@
       </c>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>419</v>
+      </c>
+      <c r="B171" t="n">
+        <v>4</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Lancer</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>ドブルイニャ・ニキチッチ</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>420</v>
+      </c>
+      <c r="B172" t="n">
+        <v>4</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Avenger</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>徐福</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>422</v>
+      </c>
+      <c r="B173" t="n">
+        <v>4</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Mooncancer</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>テノチティトラン</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>423</v>
+      </c>
+      <c r="B174" t="n">
+        <v>4</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Foreigner</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>謎のヒロインXX〔オルタ〕</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>424</v>
+      </c>
+      <c r="B175" t="n">
+        <v>4</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Mooncancer</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>岸波白野</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>425</v>
+      </c>
+      <c r="B176" t="n">
+        <v>4</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Mooncancer</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>岸波白野</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4_servents.xlsx
+++ b/4_servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F176"/>
+  <dimension ref="A1:F178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4743,7 +4743,11 @@
           <t>特諾奇蒂特蘭</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>特諾奇提特蘭</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -4954,7 +4958,11 @@
           <t>永倉新八</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>永倉新八</t>
+        </is>
+      </c>
       <c r="F163" t="inlineStr"/>
     </row>
     <row r="164">
@@ -4974,7 +4982,11 @@
           <t>雑賀孫一</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>雜賀孫一</t>
+        </is>
+      </c>
       <c r="F164" t="inlineStr"/>
     </row>
     <row r="165">
@@ -5216,6 +5228,46 @@
       </c>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>428</v>
+      </c>
+      <c r="B177" t="n">
+        <v>4</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Lancer</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>ヴァン・ゴッホ〔マイナー〕</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>430</v>
+      </c>
+      <c r="B178" t="n">
+        <v>4</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Pretender</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>アビゲイル・ウィリアムズ〔サンタ〕</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4_servents.xlsx
+++ b/4_servents.xlsx
@@ -5006,7 +5006,11 @@
           <t>ネモ〔サンタ〕</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>尼莫〔聖誕〕</t>
+        </is>
+      </c>
       <c r="F165" t="inlineStr"/>
     </row>
     <row r="166">
